--- a/Test Scenarios.xlsx
+++ b/Test Scenarios.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>WATTPAD</t>
   </si>
@@ -36,12 +36,6 @@
   </si>
   <si>
     <t>User enters by giving his details and registers succesfully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">READING </t>
-  </si>
-  <si>
-    <t>Users can use Start Reading Button to explore books</t>
   </si>
   <si>
     <t>SEARCH</t>
@@ -111,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,18 +120,49 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Segoe Script"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="20"/>
-      <color theme="1"/>
+      <color theme="8" tint="-0.249977111117893"/>
       <name val="Script MT Bold"/>
       <family val="4"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -152,16 +177,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF7B5EA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -436,122 +471,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:K27"/>
+  <dimension ref="D1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="4:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="J1" s="2" t="s">
+    <row r="1" spans="4:12" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="J1" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="4:11" ht="24.75" x14ac:dyDescent="0.6">
-      <c r="D3" s="1" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="3" spans="4:12" ht="24.75" x14ac:dyDescent="0.6">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    <row r="5" spans="4:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="7" spans="4:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+    </row>
+    <row r="19" spans="4:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" t="s">
+    </row>
+    <row r="21" spans="4:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+    <row r="23" spans="4:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H23" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+    <row r="25" spans="4:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H25" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Test Scenarios.xlsx
+++ b/Test Scenarios.xlsx
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
